--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.3_TC1.xlsx
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.125144981757211</v>
+        <v>0.1312184895043395</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3294628226696942</v>
+        <v>0.3578968655708283</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3294628226696942, 'ngram_match_score': 0.12514498175721103, 'weighted_ngram_match_score': 0.14599946432406244, 'syntax_match_score': 0.6336633663366337, 'dataflow_match_score': 0.41304347826086957}</t>
+          <t>{'codebleu': 0.35789686557082834, 'ngram_match_score': 0.13121848950433948, 'weighted_ngram_match_score': 0.14399790088917605, 'syntax_match_score': 0.6237623762376238, 'dataflow_match_score': 0.532608695652174}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.8717237142898642</v>
+        <v>0.9082444610469762</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
